--- a/data/financial_statements/sofp/LH.xlsx
+++ b/data/financial_statements/sofp/LH.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>410000000</v>
+        <v>409900000</v>
       </c>
       <c r="C2">
-        <v>1069000000</v>
+        <v>1068800000</v>
       </c>
       <c r="D2">
-        <v>1234000000</v>
+        <v>1233500000</v>
       </c>
       <c r="E2">
-        <v>1473000000</v>
+        <v>1472700000</v>
       </c>
       <c r="F2">
-        <v>2037000000</v>
+        <v>2036500000</v>
       </c>
       <c r="G2">
         <v>1963200000</v>
@@ -745,20 +856,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2983000000</v>
+        <v>2982700000</v>
       </c>
       <c r="C3">
-        <v>3044000000</v>
+        <v>3043800000</v>
       </c>
       <c r="D3">
-        <v>3040000000</v>
+        <v>3039600000</v>
       </c>
       <c r="E3">
-        <v>2978000000</v>
+        <v>2978300000</v>
       </c>
       <c r="F3">
         <v>3055000000</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>468000000</v>
+        <v>467700000</v>
       </c>
       <c r="C4">
-        <v>436000000</v>
+        <v>436300000</v>
       </c>
       <c r="D4">
-        <v>441000000</v>
+        <v>440700000</v>
       </c>
       <c r="E4">
-        <v>401000000</v>
+        <v>401400000</v>
       </c>
       <c r="F4">
-        <v>411000000</v>
+        <v>410700000</v>
       </c>
       <c r="G4">
         <v>421300000</v>
@@ -989,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>512000000</v>
@@ -1036,23 +1147,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>4372000000</v>
+        <v>4371800000</v>
       </c>
       <c r="C6">
-        <v>5031000000</v>
+        <v>5030800000</v>
       </c>
       <c r="D6">
-        <v>5230000000</v>
+        <v>5229500000</v>
       </c>
       <c r="E6">
-        <v>5331000000</v>
+        <v>5330500000</v>
       </c>
       <c r="F6">
-        <v>6021000000</v>
+        <v>6020500000</v>
       </c>
       <c r="G6">
         <v>5693500000</v>
@@ -1158,23 +1269,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>2885000000</v>
+        <v>2884700000</v>
       </c>
       <c r="C7">
-        <v>2870000000</v>
+        <v>2870200000</v>
       </c>
       <c r="D7">
-        <v>2808000000</v>
+        <v>2807600000</v>
       </c>
       <c r="E7">
-        <v>2815000000</v>
+        <v>2815400000</v>
       </c>
       <c r="F7">
-        <v>2692000000</v>
+        <v>2692200000</v>
       </c>
       <c r="G7">
         <v>2701800000</v>
@@ -1280,23 +1391,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>64000000</v>
+        <v>63700000</v>
       </c>
       <c r="C8">
-        <v>58000000</v>
+        <v>57700000</v>
       </c>
       <c r="D8">
-        <v>62000000</v>
+        <v>62200000</v>
       </c>
       <c r="E8">
-        <v>64000000</v>
+        <v>60900000</v>
       </c>
       <c r="F8">
-        <v>66000000</v>
+        <v>62100000</v>
       </c>
       <c r="G8">
         <v>82100000</v>
@@ -1402,23 +1513,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>12025000000</v>
+        <v>12025400000</v>
       </c>
       <c r="C9">
-        <v>11979000000</v>
+        <v>11978900000</v>
       </c>
       <c r="D9">
-        <v>12138000000</v>
+        <v>12138300000</v>
       </c>
       <c r="E9">
-        <v>11694000000</v>
+        <v>11694400000</v>
       </c>
       <c r="F9">
-        <v>11662000000</v>
+        <v>11661900000</v>
       </c>
       <c r="G9">
         <v>11498300000</v>
@@ -1524,8 +1635,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>29400000</v>
@@ -1613,23 +1724,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>451000000</v>
       </c>
       <c r="C11">
-        <v>436000000</v>
+        <v>436800000</v>
       </c>
       <c r="D11">
-        <v>462000000</v>
+        <v>462600000</v>
       </c>
       <c r="E11">
-        <v>459000000</v>
+        <v>462600000</v>
       </c>
       <c r="F11">
-        <v>396000000</v>
+        <v>406000000</v>
       </c>
       <c r="G11">
         <v>417700000</v>
@@ -1735,8 +1846,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>15454200000</v>
@@ -1857,23 +1968,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>19826000000</v>
       </c>
       <c r="C13">
-        <v>20403000000</v>
+        <v>20403100000</v>
       </c>
       <c r="D13">
-        <v>20728000000</v>
+        <v>20728400000</v>
       </c>
       <c r="E13">
-        <v>20385000000</v>
+        <v>20385400000</v>
       </c>
       <c r="F13">
-        <v>20867000000</v>
+        <v>20866500000</v>
       </c>
       <c r="G13">
         <v>20417100000</v>
@@ -1979,8 +2090,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1700000</v>
@@ -2095,23 +2206,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>766000000</v>
+        <v>765500000</v>
       </c>
       <c r="C15">
-        <v>755000000</v>
+        <v>754700000</v>
       </c>
       <c r="D15">
-        <v>624000000</v>
+        <v>623600000</v>
       </c>
       <c r="E15">
-        <v>621000000</v>
+        <v>621300000</v>
       </c>
       <c r="F15">
-        <v>669000000</v>
+        <v>669400000</v>
       </c>
       <c r="G15">
         <v>599900000</v>
@@ -2217,8 +2328,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1040800000</v>
@@ -2339,8 +2450,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>185000000</v>
@@ -2355,7 +2466,7 @@
         <v>199000000</v>
       </c>
       <c r="F17">
-        <v>201000000</v>
+        <v>1600000</v>
       </c>
       <c r="G17">
         <v>203000000</v>
@@ -2392,8 +2503,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>5300000</v>
@@ -2445,8 +2556,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>530900000</v>
@@ -2543,8 +2654,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AG20">
         <v>5500000</v>
@@ -2557,8 +2668,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1572000000</v>
@@ -2604,23 +2715,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2522000000</v>
+        <v>2522300000</v>
       </c>
       <c r="C22">
-        <v>2643000000</v>
+        <v>2642900000</v>
       </c>
       <c r="D22">
-        <v>2642000000</v>
+        <v>2641500000</v>
       </c>
       <c r="E22">
-        <v>2783000000</v>
+        <v>2782900000</v>
       </c>
       <c r="F22">
-        <v>2888000000</v>
+        <v>2888400000</v>
       </c>
       <c r="G22">
         <v>2667100000</v>
@@ -2726,23 +2837,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>6086000000</v>
+        <v>5420100000</v>
       </c>
       <c r="C23">
-        <v>6112000000</v>
+        <v>5442200000</v>
       </c>
       <c r="D23">
-        <v>6090000000</v>
+        <v>5466500000</v>
       </c>
       <c r="E23">
-        <v>6144000000</v>
+        <v>5501100000</v>
       </c>
       <c r="F23">
-        <v>6134000000</v>
+        <v>5503200000</v>
       </c>
       <c r="G23">
         <v>5509800000</v>
@@ -2848,23 +2959,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>643000000</v>
+        <v>672700000</v>
       </c>
       <c r="C24">
-        <v>715000000</v>
+        <v>743400000</v>
       </c>
       <c r="D24">
-        <v>737000000</v>
+        <v>765200000</v>
       </c>
       <c r="E24">
-        <v>741000000</v>
+        <v>762900000</v>
       </c>
       <c r="F24">
-        <v>781000000</v>
+        <v>804800000</v>
       </c>
       <c r="G24">
         <v>826000000</v>
@@ -2970,8 +3081,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>18900000</v>
@@ -3092,17 +3203,17 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>434000000</v>
+        <v>433900000</v>
       </c>
       <c r="C26">
-        <v>484000000</v>
+        <v>484500000</v>
       </c>
       <c r="D26">
-        <v>490000000</v>
+        <v>489800000</v>
       </c>
       <c r="E26">
         <v>402000000</v>
@@ -3214,8 +3325,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>7211500000</v>
@@ -3336,23 +3447,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>9715000000</v>
+        <v>9733800000</v>
       </c>
       <c r="C28">
-        <v>9982000000</v>
+        <v>10002400000</v>
       </c>
       <c r="D28">
-        <v>9987000000</v>
+        <v>10007300000</v>
       </c>
       <c r="E28">
-        <v>10091000000</v>
+        <v>10112000000</v>
       </c>
       <c r="F28">
-        <v>10321000000</v>
+        <v>10342000000</v>
       </c>
       <c r="G28">
         <v>10172000000</v>
@@ -3458,8 +3569,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3550,23 +3661,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>8000000</v>
+        <v>8200000</v>
       </c>
       <c r="C30">
-        <v>8000000</v>
+        <v>8300000</v>
       </c>
       <c r="D30">
-        <v>9000000</v>
+        <v>8500000</v>
       </c>
       <c r="E30">
-        <v>9000000</v>
+        <v>8500000</v>
       </c>
       <c r="F30">
-        <v>9000000</v>
+        <v>8800000</v>
       </c>
       <c r="G30">
         <v>8900000</v>
@@ -3672,23 +3783,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>10845000000</v>
       </c>
       <c r="C31">
-        <v>10898000000</v>
+        <v>10897900000</v>
       </c>
       <c r="D31">
-        <v>10948000000</v>
+        <v>10948400000</v>
       </c>
       <c r="E31">
-        <v>10457000000</v>
+        <v>10456800000</v>
       </c>
       <c r="F31">
-        <v>10787000000</v>
+        <v>10786600000</v>
       </c>
       <c r="G31">
         <v>10417400000</v>
@@ -3794,8 +3905,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="P32">
         <v>1127500000</v>
@@ -3874,23 +3985,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>10092000000</v>
+        <v>10092200000</v>
       </c>
       <c r="C33">
-        <v>10401000000</v>
+        <v>10400700000</v>
       </c>
       <c r="D33">
-        <v>10721000000</v>
+        <v>10721100000</v>
       </c>
       <c r="E33">
-        <v>10273000000</v>
+        <v>10273400000</v>
       </c>
       <c r="F33">
-        <v>10525000000</v>
+        <v>10524500000</v>
       </c>
       <c r="G33">
         <v>10245100000</v>
@@ -3996,23 +4107,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>10092000000</v>
+        <v>10092200000</v>
       </c>
       <c r="C34">
-        <v>10401000000</v>
+        <v>10400700000</v>
       </c>
       <c r="D34">
-        <v>10721000000</v>
+        <v>10721100000</v>
       </c>
       <c r="E34">
-        <v>10273000000</v>
+        <v>10273400000</v>
       </c>
       <c r="F34">
-        <v>10525000000</v>
+        <v>10524500000</v>
       </c>
       <c r="G34">
         <v>10245100000</v>
@@ -4118,8 +4229,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>19826000000</v>
@@ -4240,8 +4351,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>89600000</v>
@@ -4362,8 +4473,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>-1933199000</v>
@@ -4484,23 +4595,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>5861000000</v>
+        <v>5195200000</v>
       </c>
       <c r="C38">
-        <v>5247000000</v>
+        <v>4577400000</v>
       </c>
       <c r="D38">
-        <v>5058000000</v>
+        <v>4435000000</v>
       </c>
       <c r="E38">
-        <v>4870000000</v>
+        <v>4227400000</v>
       </c>
       <c r="F38">
-        <v>4298000000</v>
+        <v>3468300000</v>
       </c>
       <c r="G38">
         <v>3749600000</v>
@@ -4606,23 +4717,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>6271000000</v>
+        <v>5605100000</v>
       </c>
       <c r="C39">
-        <v>6316000000</v>
+        <v>5646200000</v>
       </c>
       <c r="D39">
-        <v>6292000000</v>
+        <v>5668500000</v>
       </c>
       <c r="E39">
-        <v>6343000000</v>
+        <v>5700100000</v>
       </c>
       <c r="F39">
-        <v>6335000000</v>
+        <v>5504800000</v>
       </c>
       <c r="G39">
         <v>5712800000</v>
